--- a/public/service_report.xlsx
+++ b/public/service_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>ตู้เข้า</t>
   </si>
@@ -47,24 +47,33 @@
     <t>ลูกค้า</t>
   </si>
   <si>
+    <t xml:space="preserve"> ABCD 34264 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> รอตรวจสอบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reefer Container</t>
+  </si>
+  <si>
+    <t>27 ก.ค. 2564 17:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> แปซิฟิคเวย์</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betagro (กรุงเทพ) </t>
+  </si>
+  <si>
     <t xml:space="preserve"> RTYU 34502 0</t>
   </si>
   <si>
     <t xml:space="preserve"> นำตู้ออกแล้ว</t>
   </si>
   <si>
-    <t xml:space="preserve"> Reefer Container</t>
-  </si>
-  <si>
-    <t>27 ก.ค. 2564 17:46</t>
-  </si>
-  <si>
     <t xml:space="preserve"> New Logist</t>
   </si>
   <si>
-    <t xml:space="preserve"> Betagro (กรุงเทพ) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ERSD 12304 0</t>
   </si>
   <si>
@@ -80,6 +89,12 @@
     <t xml:space="preserve"> Livin More</t>
   </si>
   <si>
+    <t>21 ก.ค. 2564 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ไอวี</t>
+  </si>
+  <si>
     <t xml:space="preserve"> WFHU 51822 0</t>
   </si>
   <si>
@@ -89,13 +104,7 @@
     <t xml:space="preserve"> Dry Container</t>
   </si>
   <si>
-    <t>21 ก.ค. 2564 17:00</t>
-  </si>
-  <si>
     <t xml:space="preserve"> สยามโลจิสต์</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ไอวี</t>
   </si>
 </sst>
 </file>
@@ -613,10 +622,10 @@
     </row>
     <row r="8" spans="1:26">
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>0</v>
@@ -628,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>15</v>
@@ -636,22 +645,22 @@
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>15</v>
@@ -659,48 +668,48 @@
     </row>
     <row r="10" spans="1:26">
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/public/service_report.xlsx
+++ b/public/service_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>ตู้เข้า</t>
   </si>
@@ -47,64 +47,52 @@
     <t>ลูกค้า</t>
   </si>
   <si>
-    <t xml:space="preserve"> ABCD 34264 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> รอตรวจสอบ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reefer Container</t>
-  </si>
-  <si>
-    <t>27 ก.ค. 2564 17:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> แปซิฟิคเวย์</t>
+    <t xml:space="preserve"> WFHU 51822 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> นำตู้เข้าลาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dry Container</t>
+  </si>
+  <si>
+    <t>30 พ.ย. 542 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ร่ำรวย จำกัด1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ไอวี3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WFHU 51822 0</t>
+  </si>
+  <si>
+    <t>17 ส.ค. 2564 22:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ร่ำรวย จำกัด</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ไอวี (แสนสุข) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ERSD 12304 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ตู้พร้อมใช้งาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISO Tank</t>
+  </si>
+  <si>
+    <t>13 ส.ค. 2564 20:38</t>
   </si>
   <si>
     <t xml:space="preserve"> Betagro (กรุงเทพ) </t>
   </si>
   <si>
-    <t xml:space="preserve"> RTYU 34502 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> นำตู้ออกแล้ว</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Logist</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ERSD 12304 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ตู้พร้อมใช้งาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ISO Tank</t>
-  </si>
-  <si>
-    <t>27 ก.ค. 2564 17:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Livin More</t>
-  </si>
-  <si>
     <t>21 ก.ค. 2564 17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ไอวี</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WFHU 51822 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> นำตู้เข้าลาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dry Container</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> สยามโลจิสต์</t>
   </si>
 </sst>
 </file>
@@ -514,10 +502,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B6" sqref="B6:H11"/>
+      <selection activeCell="B6" sqref="B6:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,9 +514,9 @@
     <col min="2" max="2" width="23" bestFit="true" customWidth="true" style="2"/>
     <col min="3" max="3" width="26" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="13" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="30" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="25" bestFit="true" customWidth="true" style="1"/>
     <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="22" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="25" bestFit="true" customWidth="true" style="1"/>
     <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="9.10" style="1"/>
     <col min="10" max="10" width="9.10" style="1"/>
@@ -555,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -563,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -571,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -625,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>0</v>
@@ -634,82 +622,59 @@
         <v>12</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/public/service_report.xlsx
+++ b/public/service_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>ตู้เข้า</t>
   </si>
@@ -47,64 +47,46 @@
     <t>ลูกค้า</t>
   </si>
   <si>
-    <t xml:space="preserve"> ABCD 34264 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> รอตรวจสอบ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reefer Container</t>
-  </si>
-  <si>
-    <t>27 ก.ค. 2564 17:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> แปซิฟิคเวย์</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Betagro (กรุงเทพ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RTYU 34502 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> นำตู้ออกแล้ว</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Logist</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ERSD 12304 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ตู้พร้อมใช้งาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ISO Tank</t>
-  </si>
-  <si>
-    <t>27 ก.ค. 2564 17:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Livin More</t>
-  </si>
-  <si>
-    <t>21 ก.ค. 2564 17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ไอวี</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WFHU 51822 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> นำตู้เข้าลาน</t>
+    <t xml:space="preserve"> ABCD 44444 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ready</t>
   </si>
   <si>
     <t xml:space="preserve"> Dry Container</t>
   </si>
   <si>
-    <t xml:space="preserve"> สยามโลจิสต์</t>
+    <t>16 Nov 2021 17:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PD Consult</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At Pro Solution (ศรีราชา) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABCD 11111 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Export</t>
+  </si>
+  <si>
+    <t>21 Nov 2021 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เจ พลัส</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABCD 33333 0</t>
+  </si>
+  <si>
+    <t>21 Nov 2021 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ทดสอบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At Pro Solution (กรุงเทพ) </t>
   </si>
 </sst>
 </file>
@@ -514,22 +496,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B6" sqref="B6:H11"/>
+      <selection activeCell="B6" sqref="B6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="1"/>
     <col min="2" max="2" width="23" bestFit="true" customWidth="true" style="2"/>
-    <col min="3" max="3" width="26" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="17" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="13" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="30" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="22" bestFit="true" customWidth="true" style="1"/>
-    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="25" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="30" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="20" bestFit="true" customWidth="true" style="1"/>
+    <col min="8" max="8" width="47" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="9.10" style="1"/>
     <col min="10" max="10" width="9.10" style="1"/>
     <col min="11" max="11" width="9.10" style="1"/>
@@ -555,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -604,9 +586,7 @@
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
@@ -627,89 +607,39 @@
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
